--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaSampleProjects\ContactManagementSystem\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaSampleProjects\E_Commerce\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB700FB7-5E9C-474A-BB94-786618E69B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FFF8F-BFB8-406A-B865-388A2AC7D2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="signin" sheetId="2" r:id="rId2"/>
-    <sheet name="contacts" sheetId="3" r:id="rId3"/>
+    <sheet name="order" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>testing</t>
   </si>
@@ -53,145 +53,64 @@
     <t>InvalidEmailFormat</t>
   </si>
   <si>
-    <t>Incorrect username or password</t>
-  </si>
-  <si>
     <t>ExistingUser</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
-    <t>firstname</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>error</t>
   </si>
   <si>
-    <t>Email address is already in use</t>
-  </si>
-  <si>
-    <t>User validation failed: firstName: Path `firstName` is required., lastName: Path `lastName` is required., email: Email is invalid, password: Path `password` is required.</t>
-  </si>
-  <si>
-    <t>User validation failed: email: Email is invalid</t>
-  </si>
-  <si>
     <t>NEW</t>
   </si>
   <si>
-    <t>name@name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>street1</t>
-  </si>
-  <si>
-    <t>address1</t>
-  </si>
-  <si>
-    <t>address2</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>postalcode</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
+    <t>Sri</t>
+  </si>
+  <si>
+    <t>srividhyaa</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Wrong password.</t>
+  </si>
+  <si>
+    <t>Please fill out Username and Password.</t>
+  </si>
+  <si>
+    <t>This user already exist.</t>
+  </si>
+  <si>
+    <t>Please fill out Name and Creditcard.</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
     <t>Chennai</t>
   </si>
   <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>1111-11-11</t>
-  </si>
-  <si>
-    <t>birthdate</t>
-  </si>
-  <si>
-    <t>street2</t>
-  </si>
-  <si>
-    <t>Sri</t>
-  </si>
-  <si>
-    <t>vidhyaa</t>
-  </si>
-  <si>
-    <t>srividhyaa@test.com</t>
-  </si>
-  <si>
-    <t>srividhyaa0808234646@test.com</t>
-  </si>
-  <si>
-    <t>addContact</t>
-  </si>
-  <si>
-    <t>missingField</t>
-  </si>
-  <si>
-    <t>phoneError</t>
-  </si>
-  <si>
-    <t>srividhyaa0809002756@test.com</t>
-  </si>
-  <si>
-    <t>srividhyaa0809002842@test.com</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>duplicateContact</t>
-  </si>
-  <si>
-    <t>Contact validation failed: firstName: Path `firstName` is required., lastName: Path `lastName` is required.</t>
-  </si>
-  <si>
-    <t>Contact validation failed: phone: Phone number is invalid</t>
-  </si>
-  <si>
-    <t>srividhyaa0809003458@test.com</t>
-  </si>
-  <si>
-    <t>formReset</t>
-  </si>
-  <si>
-    <t>srividhyaa0809005948@test.com</t>
-  </si>
-  <si>
-    <t>editContact</t>
-  </si>
-  <si>
-    <t>srividhyaa0809012614@test.com</t>
-  </si>
-  <si>
-    <t>Validation failed: lastName: Path `lastName` is required.</t>
-  </si>
-  <si>
-    <t>deleteContact</t>
-  </si>
-  <si>
-    <t>srividhyaa0809031033@test.com</t>
+    <t>400011113452</t>
   </si>
 </sst>
 </file>
@@ -513,7 +432,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,7 +440,7 @@
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -529,13 +448,13 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -543,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -554,13 +473,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,7 +498,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -589,104 +508,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02DF21C-DC38-421A-9C04-51ABCDF27097}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+      <c r="D4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -696,10 +576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F7C34-880C-4C62-A888-54D235FDDBEF}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,69 +589,50 @@
     <col min="5" max="5" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="88" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -779,275 +640,13 @@
       <c r="G2">
         <v>9123456789</v>
       </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2">
-        <v>600100</v>
-      </c>
-      <c r="M2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>9123456789</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3">
-        <v>600100</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4">
-        <v>600100</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>9123456789</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5">
-        <v>600100</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>9123456789</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6">
-        <v>600100</v>
-      </c>
-      <c r="M6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>9123456789</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7">
-        <v>600100</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>9123456789</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8">
-        <v>600100</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JavaSampleProjects\E_Commerce\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531FFF8F-BFB8-406A-B865-388A2AC7D2AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F94D632-DD3D-4E8C-BD63-FA6824710D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>testing</t>
   </si>
@@ -62,9 +62,6 @@
     <t>error</t>
   </si>
   <si>
-    <t>NEW</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>400011113452</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>
@@ -429,76 +435,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -508,65 +530,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02DF21C-DC38-421A-9C04-51ABCDF27097}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -578,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601F7C34-880C-4C62-A888-54D235FDDBEF}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -597,22 +618,22 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -623,16 +644,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -646,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
